--- a/zhuangu/LTE六期资源录入0502.xlsx
+++ b/zhuangu/LTE六期资源录入0502.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1080</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15121" uniqueCount="3839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15121" uniqueCount="3840">
   <si>
     <t>编号</t>
   </si>
@@ -11531,6 +11534,10 @@
   </si>
   <si>
     <t>J01050900085</t>
+  </si>
+  <si>
+    <t>17SD018309001N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11902,13 +11909,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1060" workbookViewId="0">
-      <selection activeCell="A1081" sqref="A1081:XFD1086"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="12" max="12" width="36.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -11957,7 +11969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12004,7 +12016,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12051,7 +12063,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12098,7 +12110,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12145,7 +12157,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12192,7 +12204,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12239,7 +12251,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12286,7 +12298,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12333,7 +12345,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12380,7 +12392,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12427,7 +12439,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12474,7 +12486,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12521,7 +12533,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12568,7 +12580,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12615,7 +12627,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12662,7 +12674,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12709,7 +12721,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12756,7 +12768,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13367,7 +13379,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13414,7 +13426,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13461,7 +13473,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13508,7 +13520,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13555,7 +13567,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13602,7 +13614,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13649,7 +13661,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13696,7 +13708,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13743,7 +13755,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13790,7 +13802,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13837,7 +13849,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13884,7 +13896,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -14354,7 +14366,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14401,7 +14413,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14448,7 +14460,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14495,7 +14507,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -14542,7 +14554,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -14589,7 +14601,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -14636,7 +14648,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -14683,7 +14695,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -14730,7 +14742,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -14777,7 +14789,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -14824,7 +14836,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -14871,7 +14883,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -14918,7 +14930,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -14965,7 +14977,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -15012,7 +15024,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -15059,7 +15071,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -15106,7 +15118,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -15153,7 +15165,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -15200,7 +15212,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -15247,7 +15259,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -15294,7 +15306,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -15341,7 +15353,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -15388,7 +15400,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -15435,7 +15447,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -15482,7 +15494,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -15529,7 +15541,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -15576,7 +15588,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -15623,7 +15635,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -15670,7 +15682,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -15717,7 +15729,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -15764,7 +15776,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -15811,7 +15823,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -15858,7 +15870,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -15905,7 +15917,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15952,7 +15964,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15999,7 +16011,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -16046,7 +16058,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -16093,7 +16105,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -16140,7 +16152,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -16187,7 +16199,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -16234,7 +16246,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -16281,7 +16293,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -16328,7 +16340,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -16375,7 +16387,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -16422,7 +16434,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -16469,7 +16481,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -16516,7 +16528,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -16563,7 +16575,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -16610,7 +16622,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -16657,7 +16669,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -16704,7 +16716,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -16751,7 +16763,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -16798,7 +16810,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -16845,7 +16857,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -16892,7 +16904,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -16939,7 +16951,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -16986,7 +16998,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -17033,7 +17045,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -17080,7 +17092,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -17127,7 +17139,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -17174,7 +17186,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -17221,7 +17233,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17268,7 +17280,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -17315,7 +17327,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -17362,7 +17374,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -17409,7 +17421,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -17456,7 +17468,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -17503,7 +17515,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -17550,7 +17562,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -17597,7 +17609,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -17655,7 +17667,7 @@
         <v>22</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>3839</v>
       </c>
       <c r="E123" t="s">
         <v>72</v>
@@ -17926,7 +17938,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -17973,7 +17985,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -18020,7 +18032,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -18067,7 +18079,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -18114,7 +18126,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -18161,7 +18173,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -18490,7 +18502,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18537,7 +18549,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18584,7 +18596,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18631,7 +18643,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18678,7 +18690,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -18725,7 +18737,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -18772,7 +18784,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -18819,7 +18831,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -18866,7 +18878,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -18913,7 +18925,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -18960,7 +18972,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -19007,7 +19019,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -19054,7 +19066,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -19101,7 +19113,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -19148,7 +19160,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -19195,7 +19207,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -19242,7 +19254,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -19289,7 +19301,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -19900,7 +19912,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19947,7 +19959,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19994,7 +20006,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>172</v>
       </c>
@@ -20041,7 +20053,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>173</v>
       </c>
@@ -20088,7 +20100,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>174</v>
       </c>
@@ -20135,7 +20147,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>175</v>
       </c>
@@ -20182,7 +20194,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>176</v>
       </c>
@@ -20229,7 +20241,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>177</v>
       </c>
@@ -20276,7 +20288,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>178</v>
       </c>
@@ -20323,7 +20335,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>179</v>
       </c>
@@ -20370,7 +20382,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>180</v>
       </c>
@@ -20417,7 +20429,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>181</v>
       </c>
@@ -20464,7 +20476,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>182</v>
       </c>
@@ -20511,7 +20523,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>183</v>
       </c>
@@ -20558,7 +20570,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>184</v>
       </c>
@@ -20605,7 +20617,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>185</v>
       </c>
@@ -20652,7 +20664,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>186</v>
       </c>
@@ -20699,7 +20711,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>187</v>
       </c>
@@ -20746,7 +20758,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>188</v>
       </c>
@@ -20793,7 +20805,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>189</v>
       </c>
@@ -20840,7 +20852,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>190</v>
       </c>
@@ -20887,7 +20899,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>191</v>
       </c>
@@ -20934,7 +20946,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>192</v>
       </c>
@@ -20981,7 +20993,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>193</v>
       </c>
@@ -21028,7 +21040,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>194</v>
       </c>
@@ -21075,7 +21087,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>195</v>
       </c>
@@ -21122,7 +21134,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>196</v>
       </c>
@@ -21169,7 +21181,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>197</v>
       </c>
@@ -21216,7 +21228,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>198</v>
       </c>
@@ -21263,7 +21275,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>199</v>
       </c>
@@ -21310,7 +21322,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>200</v>
       </c>
@@ -21357,7 +21369,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>201</v>
       </c>
@@ -21404,7 +21416,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>202</v>
       </c>
@@ -21451,7 +21463,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>203</v>
       </c>
@@ -21498,7 +21510,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>204</v>
       </c>
@@ -21545,7 +21557,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>205</v>
       </c>
@@ -21592,7 +21604,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>206</v>
       </c>
@@ -21639,7 +21651,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>207</v>
       </c>
@@ -21686,7 +21698,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>208</v>
       </c>
@@ -21733,7 +21745,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>209</v>
       </c>
@@ -21780,7 +21792,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>210</v>
       </c>
@@ -21827,7 +21839,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>211</v>
       </c>
@@ -21874,7 +21886,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>212</v>
       </c>
@@ -21921,7 +21933,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>213</v>
       </c>
@@ -21968,7 +21980,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>214</v>
       </c>
@@ -22015,7 +22027,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>215</v>
       </c>
@@ -22344,7 +22356,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>222</v>
       </c>
@@ -22391,7 +22403,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>223</v>
       </c>
@@ -22438,7 +22450,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>224</v>
       </c>
@@ -22485,7 +22497,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>225</v>
       </c>
@@ -22532,7 +22544,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>226</v>
       </c>
@@ -22579,7 +22591,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>227</v>
       </c>
@@ -22626,7 +22638,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>228</v>
       </c>
@@ -22673,7 +22685,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>229</v>
       </c>
@@ -22720,7 +22732,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>230</v>
       </c>
@@ -22767,7 +22779,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>231</v>
       </c>
@@ -22814,7 +22826,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>232</v>
       </c>
@@ -22861,7 +22873,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>233</v>
       </c>
@@ -22908,7 +22920,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>234</v>
       </c>
@@ -22955,7 +22967,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>235</v>
       </c>
@@ -23002,7 +23014,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>236</v>
       </c>
@@ -23049,7 +23061,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>237</v>
       </c>
@@ -23096,7 +23108,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>238</v>
       </c>
@@ -23143,7 +23155,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>239</v>
       </c>
@@ -23190,7 +23202,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>240</v>
       </c>
@@ -23237,7 +23249,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>241</v>
       </c>
@@ -23284,7 +23296,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>242</v>
       </c>
@@ -23331,7 +23343,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>243</v>
       </c>
@@ -23378,7 +23390,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>244</v>
       </c>
@@ -23425,7 +23437,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>245</v>
       </c>
@@ -23472,7 +23484,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>246</v>
       </c>
@@ -23519,7 +23531,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>247</v>
       </c>
@@ -23566,7 +23578,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>248</v>
       </c>
@@ -23613,7 +23625,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>249</v>
       </c>
@@ -23660,7 +23672,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>250</v>
       </c>
@@ -23707,7 +23719,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>251</v>
       </c>
@@ -23754,7 +23766,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>252</v>
       </c>
@@ -23801,7 +23813,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>253</v>
       </c>
@@ -23848,7 +23860,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>254</v>
       </c>
@@ -23895,7 +23907,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>255</v>
       </c>
@@ -23942,7 +23954,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>256</v>
       </c>
@@ -23989,7 +24001,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>257</v>
       </c>
@@ -24036,7 +24048,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>258</v>
       </c>
@@ -24083,7 +24095,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>259</v>
       </c>
@@ -24130,7 +24142,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>260</v>
       </c>
@@ -24177,7 +24189,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>261</v>
       </c>
@@ -24224,7 +24236,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>262</v>
       </c>
@@ -24271,7 +24283,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>263</v>
       </c>
@@ -24318,7 +24330,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>264</v>
       </c>
@@ -24365,7 +24377,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>265</v>
       </c>
@@ -24694,7 +24706,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>272</v>
       </c>
@@ -24741,7 +24753,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>273</v>
       </c>
@@ -24788,7 +24800,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>274</v>
       </c>
@@ -24835,7 +24847,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>275</v>
       </c>
@@ -24882,7 +24894,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>276</v>
       </c>
@@ -24929,7 +24941,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>277</v>
       </c>
@@ -25258,7 +25270,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>284</v>
       </c>
@@ -25305,7 +25317,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>285</v>
       </c>
@@ -25352,7 +25364,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>286</v>
       </c>
@@ -25399,7 +25411,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>287</v>
       </c>
@@ -25446,7 +25458,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>288</v>
       </c>
@@ -25493,7 +25505,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>289</v>
       </c>
@@ -25540,7 +25552,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>290</v>
       </c>
@@ -25587,7 +25599,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>291</v>
       </c>
@@ -25634,7 +25646,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>292</v>
       </c>
@@ -25681,7 +25693,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>293</v>
       </c>
@@ -25728,7 +25740,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>294</v>
       </c>
@@ -25775,7 +25787,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>295</v>
       </c>
@@ -25822,7 +25834,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>296</v>
       </c>
@@ -25869,7 +25881,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>297</v>
       </c>
@@ -25916,7 +25928,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>298</v>
       </c>
@@ -25963,7 +25975,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>299</v>
       </c>
@@ -26010,7 +26022,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>300</v>
       </c>
@@ -26057,7 +26069,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>301</v>
       </c>
@@ -26104,7 +26116,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>302</v>
       </c>
@@ -26151,7 +26163,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>303</v>
       </c>
@@ -26198,7 +26210,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>304</v>
       </c>
@@ -26245,7 +26257,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>305</v>
       </c>
@@ -26292,7 +26304,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>306</v>
       </c>
@@ -26339,7 +26351,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>307</v>
       </c>
@@ -26386,7 +26398,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>308</v>
       </c>
@@ -26433,7 +26445,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>309</v>
       </c>
@@ -26480,7 +26492,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>310</v>
       </c>
@@ -26527,7 +26539,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>311</v>
       </c>
@@ -26574,7 +26586,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>312</v>
       </c>
@@ -26621,7 +26633,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>313</v>
       </c>
@@ -26668,7 +26680,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>314</v>
       </c>
@@ -26715,7 +26727,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>315</v>
       </c>
@@ -26762,7 +26774,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>316</v>
       </c>
@@ -26809,7 +26821,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>317</v>
       </c>
@@ -26856,7 +26868,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>318</v>
       </c>
@@ -26903,7 +26915,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>319</v>
       </c>
@@ -26950,7 +26962,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>320</v>
       </c>
@@ -26997,7 +27009,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>321</v>
       </c>
@@ -27044,7 +27056,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>322</v>
       </c>
@@ -27091,7 +27103,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>323</v>
       </c>
@@ -27138,7 +27150,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>324</v>
       </c>
@@ -27185,7 +27197,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>325</v>
       </c>
@@ -27232,7 +27244,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>326</v>
       </c>
@@ -27279,7 +27291,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>327</v>
       </c>
@@ -27326,7 +27338,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>328</v>
       </c>
@@ -27373,7 +27385,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>329</v>
       </c>
@@ -27420,7 +27432,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>330</v>
       </c>
@@ -27467,7 +27479,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>331</v>
       </c>
@@ -27514,7 +27526,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>332</v>
       </c>
@@ -27561,7 +27573,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>333</v>
       </c>
@@ -27608,7 +27620,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>334</v>
       </c>
@@ -27655,7 +27667,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>335</v>
       </c>
@@ -27702,7 +27714,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>336</v>
       </c>
@@ -27749,7 +27761,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>337</v>
       </c>
@@ -27796,7 +27808,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>338</v>
       </c>
@@ -27843,7 +27855,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>339</v>
       </c>
@@ -27890,7 +27902,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>340</v>
       </c>
@@ -27937,7 +27949,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>341</v>
       </c>
@@ -27984,7 +27996,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>342</v>
       </c>
@@ -28031,7 +28043,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>343</v>
       </c>
@@ -28078,7 +28090,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>344</v>
       </c>
@@ -28125,7 +28137,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>345</v>
       </c>
@@ -28172,7 +28184,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>346</v>
       </c>
@@ -28219,7 +28231,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>347</v>
       </c>
@@ -28266,7 +28278,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>348</v>
       </c>
@@ -28313,7 +28325,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>349</v>
       </c>
@@ -28360,7 +28372,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>350</v>
       </c>
@@ -28407,7 +28419,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>351</v>
       </c>
@@ -28454,7 +28466,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>352</v>
       </c>
@@ -28501,7 +28513,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>353</v>
       </c>
@@ -28548,7 +28560,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>354</v>
       </c>
@@ -28595,7 +28607,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>355</v>
       </c>
@@ -28642,7 +28654,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>356</v>
       </c>
@@ -28689,7 +28701,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>357</v>
       </c>
@@ -28736,7 +28748,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>358</v>
       </c>
@@ -28783,7 +28795,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>359</v>
       </c>
@@ -28830,7 +28842,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>360</v>
       </c>
@@ -28877,7 +28889,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>361</v>
       </c>
@@ -28924,7 +28936,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>362</v>
       </c>
@@ -28971,7 +28983,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>363</v>
       </c>
@@ -29018,7 +29030,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>364</v>
       </c>
@@ -29065,7 +29077,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>365</v>
       </c>
@@ -29112,7 +29124,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>366</v>
       </c>
@@ -29159,7 +29171,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>367</v>
       </c>
@@ -29206,7 +29218,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>368</v>
       </c>
@@ -29253,7 +29265,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>369</v>
       </c>
@@ -29300,7 +29312,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>370</v>
       </c>
@@ -29347,7 +29359,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>371</v>
       </c>
@@ -29394,7 +29406,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>372</v>
       </c>
@@ -29441,7 +29453,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>373</v>
       </c>
@@ -29488,7 +29500,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>374</v>
       </c>
@@ -29535,7 +29547,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>375</v>
       </c>
@@ -29582,7 +29594,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>376</v>
       </c>
@@ -29629,7 +29641,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>377</v>
       </c>
@@ -29676,7 +29688,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>378</v>
       </c>
@@ -29723,7 +29735,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>379</v>
       </c>
@@ -29770,7 +29782,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>380</v>
       </c>
@@ -29817,7 +29829,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>381</v>
       </c>
@@ -29864,7 +29876,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>382</v>
       </c>
@@ -29911,7 +29923,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>383</v>
       </c>
@@ -29958,7 +29970,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>384</v>
       </c>
@@ -30005,7 +30017,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>385</v>
       </c>
@@ -30052,7 +30064,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>386</v>
       </c>
@@ -30099,7 +30111,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>387</v>
       </c>
@@ -30146,7 +30158,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>388</v>
       </c>
@@ -30193,7 +30205,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>389</v>
       </c>
@@ -30240,7 +30252,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391">
         <v>390</v>
       </c>
@@ -30287,7 +30299,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392">
         <v>391</v>
       </c>
@@ -30334,7 +30346,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>392</v>
       </c>
@@ -30381,7 +30393,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>393</v>
       </c>
@@ -30428,7 +30440,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>394</v>
       </c>
@@ -30475,7 +30487,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>395</v>
       </c>
@@ -30522,7 +30534,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397">
         <v>396</v>
       </c>
@@ -30569,7 +30581,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>397</v>
       </c>
@@ -30616,7 +30628,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399">
         <v>398</v>
       </c>
@@ -30663,7 +30675,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>399</v>
       </c>
@@ -30710,7 +30722,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>400</v>
       </c>
@@ -30757,7 +30769,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>401</v>
       </c>
@@ -30804,7 +30816,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>402</v>
       </c>
@@ -30851,7 +30863,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>403</v>
       </c>
@@ -30898,7 +30910,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405">
         <v>404</v>
       </c>
@@ -30945,7 +30957,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>405</v>
       </c>
@@ -30992,7 +31004,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>406</v>
       </c>
@@ -31039,7 +31051,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408">
         <v>407</v>
       </c>
@@ -31086,7 +31098,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409">
         <v>408</v>
       </c>
@@ -31133,7 +31145,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410">
         <v>409</v>
       </c>
@@ -31180,7 +31192,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>410</v>
       </c>
@@ -31227,7 +31239,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>411</v>
       </c>
@@ -31274,7 +31286,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>412</v>
       </c>
@@ -31321,7 +31333,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>413</v>
       </c>
@@ -31368,7 +31380,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415">
         <v>414</v>
       </c>
@@ -31415,7 +31427,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>415</v>
       </c>
@@ -31462,7 +31474,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>416</v>
       </c>
@@ -31509,7 +31521,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>417</v>
       </c>
@@ -31556,7 +31568,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419">
         <v>418</v>
       </c>
@@ -31603,7 +31615,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A420">
         <v>419</v>
       </c>
@@ -31650,7 +31662,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421">
         <v>420</v>
       </c>
@@ -31697,7 +31709,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422">
         <v>421</v>
       </c>
@@ -31744,7 +31756,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423">
         <v>422</v>
       </c>
@@ -31791,7 +31803,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424">
         <v>423</v>
       </c>
@@ -31838,7 +31850,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425">
         <v>424</v>
       </c>
@@ -31885,7 +31897,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426">
         <v>425</v>
       </c>
@@ -31932,7 +31944,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427">
         <v>426</v>
       </c>
@@ -31979,7 +31991,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428">
         <v>427</v>
       </c>
@@ -32026,7 +32038,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429">
         <v>428</v>
       </c>
@@ -32073,7 +32085,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430">
         <v>429</v>
       </c>
@@ -32120,7 +32132,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431">
         <v>430</v>
       </c>
@@ -32167,7 +32179,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432">
         <v>431</v>
       </c>
@@ -32214,7 +32226,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433">
         <v>432</v>
       </c>
@@ -32261,7 +32273,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434">
         <v>433</v>
       </c>
@@ -32308,7 +32320,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435">
         <v>434</v>
       </c>
@@ -32355,7 +32367,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436">
         <v>435</v>
       </c>
@@ -32402,7 +32414,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437">
         <v>436</v>
       </c>
@@ -32449,7 +32461,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438">
         <v>437</v>
       </c>
@@ -32496,7 +32508,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439">
         <v>438</v>
       </c>
@@ -32543,7 +32555,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440">
         <v>439</v>
       </c>
@@ -32590,7 +32602,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441">
         <v>440</v>
       </c>
@@ -32637,7 +32649,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442">
         <v>441</v>
       </c>
@@ -32684,7 +32696,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443">
         <v>442</v>
       </c>
@@ -32731,7 +32743,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444">
         <v>443</v>
       </c>
@@ -32778,7 +32790,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445">
         <v>444</v>
       </c>
@@ -32825,7 +32837,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446">
         <v>445</v>
       </c>
@@ -32872,7 +32884,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447">
         <v>446</v>
       </c>
@@ -32919,7 +32931,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448">
         <v>447</v>
       </c>
@@ -32966,7 +32978,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449">
         <v>448</v>
       </c>
@@ -33013,7 +33025,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450">
         <v>449</v>
       </c>
@@ -33060,7 +33072,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451">
         <v>450</v>
       </c>
@@ -33107,7 +33119,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A452">
         <v>451</v>
       </c>
@@ -33154,7 +33166,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453">
         <v>452</v>
       </c>
@@ -33201,7 +33213,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454">
         <v>453</v>
       </c>
@@ -33248,7 +33260,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455">
         <v>454</v>
       </c>
@@ -33295,7 +33307,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456">
         <v>455</v>
       </c>
@@ -33342,7 +33354,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457">
         <v>456</v>
       </c>
@@ -33389,7 +33401,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458">
         <v>457</v>
       </c>
@@ -33436,7 +33448,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459">
         <v>458</v>
       </c>
@@ -33483,7 +33495,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460">
         <v>459</v>
       </c>
@@ -33530,7 +33542,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461">
         <v>460</v>
       </c>
@@ -33577,7 +33589,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462">
         <v>461</v>
       </c>
@@ -33624,7 +33636,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463">
         <v>462</v>
       </c>
@@ -33671,7 +33683,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A464">
         <v>463</v>
       </c>
@@ -33718,7 +33730,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465">
         <v>464</v>
       </c>
@@ -33765,7 +33777,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466">
         <v>465</v>
       </c>
@@ -33812,7 +33824,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467">
         <v>466</v>
       </c>
@@ -33859,7 +33871,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A468">
         <v>467</v>
       </c>
@@ -33906,7 +33918,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469">
         <v>468</v>
       </c>
@@ -33953,7 +33965,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470">
         <v>469</v>
       </c>
@@ -34000,7 +34012,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471">
         <v>470</v>
       </c>
@@ -34047,7 +34059,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472">
         <v>471</v>
       </c>
@@ -34094,7 +34106,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473">
         <v>472</v>
       </c>
@@ -34141,7 +34153,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474">
         <v>473</v>
       </c>
@@ -34188,7 +34200,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475">
         <v>474</v>
       </c>
@@ -34235,7 +34247,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476">
         <v>475</v>
       </c>
@@ -34282,7 +34294,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477">
         <v>476</v>
       </c>
@@ -34329,7 +34341,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478">
         <v>477</v>
       </c>
@@ -34376,7 +34388,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479">
         <v>478</v>
       </c>
@@ -34423,7 +34435,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A480">
         <v>479</v>
       </c>
@@ -34470,7 +34482,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481">
         <v>480</v>
       </c>
@@ -34517,7 +34529,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482">
         <v>481</v>
       </c>
@@ -34564,7 +34576,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483">
         <v>482</v>
       </c>
@@ -34611,7 +34623,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484">
         <v>483</v>
       </c>
@@ -34658,7 +34670,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485">
         <v>484</v>
       </c>
@@ -34705,7 +34717,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A486">
         <v>485</v>
       </c>
@@ -34752,7 +34764,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487">
         <v>486</v>
       </c>
@@ -34799,7 +34811,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A488">
         <v>487</v>
       </c>
@@ -34846,7 +34858,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489">
         <v>488</v>
       </c>
@@ -34893,7 +34905,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>489</v>
       </c>
@@ -34940,7 +34952,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>490</v>
       </c>
@@ -34987,7 +34999,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A492">
         <v>491</v>
       </c>
@@ -35034,7 +35046,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A493">
         <v>492</v>
       </c>
@@ -35081,7 +35093,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A494">
         <v>493</v>
       </c>
@@ -35128,7 +35140,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495">
         <v>494</v>
       </c>
@@ -35175,7 +35187,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A496">
         <v>495</v>
       </c>
@@ -35222,7 +35234,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A497">
         <v>496</v>
       </c>
@@ -35269,7 +35281,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A498">
         <v>497</v>
       </c>
@@ -35316,7 +35328,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499">
         <v>498</v>
       </c>
@@ -35363,7 +35375,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A500">
         <v>499</v>
       </c>
@@ -35410,7 +35422,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A501">
         <v>500</v>
       </c>
@@ -35457,7 +35469,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A502">
         <v>501</v>
       </c>
@@ -35504,7 +35516,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A503">
         <v>502</v>
       </c>
@@ -35551,7 +35563,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A504">
         <v>503</v>
       </c>
@@ -35598,7 +35610,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A505">
         <v>504</v>
       </c>
@@ -35645,7 +35657,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A506">
         <v>505</v>
       </c>
@@ -35692,7 +35704,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507">
         <v>506</v>
       </c>
@@ -35739,7 +35751,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A508">
         <v>507</v>
       </c>
@@ -36068,7 +36080,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A515">
         <v>514</v>
       </c>
@@ -36115,7 +36127,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A516">
         <v>515</v>
       </c>
@@ -36162,7 +36174,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A517">
         <v>516</v>
       </c>
@@ -36209,7 +36221,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A518">
         <v>517</v>
       </c>
@@ -36256,7 +36268,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A519">
         <v>518</v>
       </c>
@@ -36303,7 +36315,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A520">
         <v>519</v>
       </c>
@@ -36350,7 +36362,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A521">
         <v>520</v>
       </c>
@@ -36397,7 +36409,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A522">
         <v>521</v>
       </c>
@@ -36444,7 +36456,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A523">
         <v>522</v>
       </c>
@@ -36491,7 +36503,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A524">
         <v>523</v>
       </c>
@@ -36538,7 +36550,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A525">
         <v>524</v>
       </c>
@@ -36585,7 +36597,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526">
         <v>525</v>
       </c>
@@ -36632,7 +36644,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A527">
         <v>526</v>
       </c>
@@ -36679,7 +36691,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A528">
         <v>527</v>
       </c>
@@ -36726,7 +36738,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A529">
         <v>528</v>
       </c>
@@ -36773,7 +36785,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A530">
         <v>529</v>
       </c>
@@ -36820,7 +36832,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A531">
         <v>530</v>
       </c>
@@ -36867,7 +36879,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A532">
         <v>531</v>
       </c>
@@ -36914,7 +36926,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A533">
         <v>532</v>
       </c>
@@ -36961,7 +36973,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A534">
         <v>533</v>
       </c>
@@ -37008,7 +37020,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A535">
         <v>534</v>
       </c>
@@ -37055,7 +37067,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A536">
         <v>535</v>
       </c>
@@ -37102,7 +37114,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537">
         <v>536</v>
       </c>
@@ -37149,7 +37161,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538">
         <v>537</v>
       </c>
@@ -37478,7 +37490,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A545">
         <v>544</v>
       </c>
@@ -37525,7 +37537,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A546">
         <v>545</v>
       </c>
@@ -37572,7 +37584,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A547">
         <v>546</v>
       </c>
@@ -37619,7 +37631,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A548">
         <v>547</v>
       </c>
@@ -37666,7 +37678,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A549">
         <v>548</v>
       </c>
@@ -37713,7 +37725,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A550">
         <v>549</v>
       </c>
@@ -37760,7 +37772,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A551">
         <v>550</v>
       </c>
@@ -37807,7 +37819,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A552">
         <v>551</v>
       </c>
@@ -37854,7 +37866,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553">
         <v>552</v>
       </c>
@@ -37901,7 +37913,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A554">
         <v>553</v>
       </c>
@@ -37948,7 +37960,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555">
         <v>554</v>
       </c>
@@ -37995,7 +38007,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A556">
         <v>555</v>
       </c>
@@ -38042,7 +38054,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A557">
         <v>556</v>
       </c>
@@ -38089,7 +38101,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A558">
         <v>557</v>
       </c>
@@ -38136,7 +38148,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559">
         <v>558</v>
       </c>
@@ -38183,7 +38195,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A560">
         <v>559</v>
       </c>
@@ -38230,7 +38242,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A561">
         <v>560</v>
       </c>
@@ -38277,7 +38289,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A562">
         <v>561</v>
       </c>
@@ -38324,7 +38336,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A563">
         <v>562</v>
       </c>
@@ -38371,7 +38383,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A564">
         <v>563</v>
       </c>
@@ -38418,7 +38430,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A565">
         <v>564</v>
       </c>
@@ -38465,7 +38477,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A566">
         <v>565</v>
       </c>
@@ -38512,7 +38524,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567">
         <v>566</v>
       </c>
@@ -38559,7 +38571,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A568">
         <v>567</v>
       </c>
@@ -38606,7 +38618,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A569">
         <v>568</v>
       </c>
@@ -38653,7 +38665,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A570">
         <v>569</v>
       </c>
@@ -38700,7 +38712,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A571">
         <v>570</v>
       </c>
@@ -38747,7 +38759,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A572">
         <v>571</v>
       </c>
@@ -38794,7 +38806,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A573">
         <v>572</v>
       </c>
@@ -38841,7 +38853,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A574">
         <v>573</v>
       </c>
@@ -38888,7 +38900,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A575">
         <v>574</v>
       </c>
@@ -38935,7 +38947,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A576">
         <v>575</v>
       </c>
@@ -38982,7 +38994,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A577">
         <v>576</v>
       </c>
@@ -39029,7 +39041,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A578">
         <v>577</v>
       </c>
@@ -39076,7 +39088,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A579">
         <v>578</v>
       </c>
@@ -39123,7 +39135,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A580">
         <v>579</v>
       </c>
@@ -39170,7 +39182,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A581">
         <v>580</v>
       </c>
@@ -39217,7 +39229,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A582">
         <v>581</v>
       </c>
@@ -39264,7 +39276,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A583">
         <v>582</v>
       </c>
@@ -39311,7 +39323,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A584">
         <v>583</v>
       </c>
@@ -39358,7 +39370,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A585">
         <v>584</v>
       </c>
@@ -39405,7 +39417,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A586">
         <v>585</v>
       </c>
@@ -39452,7 +39464,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A587">
         <v>586</v>
       </c>
@@ -39499,7 +39511,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A588">
         <v>587</v>
       </c>
@@ -39546,7 +39558,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A589">
         <v>588</v>
       </c>
@@ -39593,7 +39605,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A590">
         <v>589</v>
       </c>
@@ -39640,7 +39652,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A591">
         <v>590</v>
       </c>
@@ -39687,7 +39699,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A592">
         <v>591</v>
       </c>
@@ -39734,7 +39746,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A593">
         <v>592</v>
       </c>
@@ -39781,7 +39793,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A594">
         <v>593</v>
       </c>
@@ -39828,7 +39840,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A595">
         <v>594</v>
       </c>
@@ -39875,7 +39887,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A596">
         <v>595</v>
       </c>
@@ -39922,7 +39934,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A597">
         <v>596</v>
       </c>
@@ -39969,7 +39981,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A598">
         <v>597</v>
       </c>
@@ -40016,7 +40028,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A599">
         <v>598</v>
       </c>
@@ -40063,7 +40075,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A600">
         <v>599</v>
       </c>
@@ -40110,7 +40122,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A601">
         <v>600</v>
       </c>
@@ -40157,7 +40169,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A602">
         <v>601</v>
       </c>
@@ -40204,7 +40216,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A603">
         <v>602</v>
       </c>
@@ -40251,7 +40263,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A604">
         <v>603</v>
       </c>
@@ -40298,7 +40310,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A605">
         <v>604</v>
       </c>
@@ -40345,7 +40357,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A606">
         <v>605</v>
       </c>
@@ -40392,7 +40404,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A607">
         <v>606</v>
       </c>
@@ -40439,7 +40451,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A608">
         <v>607</v>
       </c>
@@ -40486,7 +40498,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A609">
         <v>608</v>
       </c>
@@ -40533,7 +40545,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A610">
         <v>609</v>
       </c>
@@ -40580,7 +40592,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A611">
         <v>610</v>
       </c>
@@ -40627,7 +40639,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A612">
         <v>611</v>
       </c>
@@ -40674,7 +40686,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A613">
         <v>612</v>
       </c>
@@ -40721,7 +40733,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A614">
         <v>613</v>
       </c>
@@ -40768,7 +40780,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A615">
         <v>614</v>
       </c>
@@ -40815,7 +40827,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A616">
         <v>615</v>
       </c>
@@ -40862,7 +40874,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A617">
         <v>616</v>
       </c>
@@ -40909,7 +40921,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A618">
         <v>617</v>
       </c>
@@ -40956,7 +40968,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A619">
         <v>618</v>
       </c>
@@ -41003,7 +41015,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A620">
         <v>619</v>
       </c>
@@ -41050,7 +41062,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A621">
         <v>620</v>
       </c>
@@ -41097,7 +41109,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A622">
         <v>621</v>
       </c>
@@ -41144,7 +41156,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A623">
         <v>622</v>
       </c>
@@ -41191,7 +41203,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A624">
         <v>623</v>
       </c>
@@ -41238,7 +41250,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A625">
         <v>624</v>
       </c>
@@ -41285,7 +41297,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A626">
         <v>625</v>
       </c>
@@ -41332,7 +41344,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A627">
         <v>626</v>
       </c>
@@ -41379,7 +41391,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A628">
         <v>627</v>
       </c>
@@ -41426,7 +41438,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A629">
         <v>628</v>
       </c>
@@ -41473,7 +41485,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A630">
         <v>629</v>
       </c>
@@ -41520,7 +41532,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A631">
         <v>630</v>
       </c>
@@ -41567,7 +41579,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A632">
         <v>631</v>
       </c>
@@ -41614,7 +41626,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A633">
         <v>632</v>
       </c>
@@ -41661,7 +41673,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A634">
         <v>633</v>
       </c>
@@ -41708,7 +41720,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A635">
         <v>634</v>
       </c>
@@ -41755,7 +41767,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A636">
         <v>635</v>
       </c>
@@ -41802,7 +41814,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A637">
         <v>636</v>
       </c>
@@ -41849,7 +41861,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A638">
         <v>637</v>
       </c>
@@ -41896,7 +41908,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A639">
         <v>638</v>
       </c>
@@ -41943,7 +41955,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A640">
         <v>639</v>
       </c>
@@ -41990,7 +42002,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A641">
         <v>640</v>
       </c>
@@ -42037,7 +42049,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A642">
         <v>641</v>
       </c>
@@ -42084,7 +42096,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A643">
         <v>642</v>
       </c>
@@ -42131,7 +42143,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A644">
         <v>643</v>
       </c>
@@ -42178,7 +42190,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A645">
         <v>644</v>
       </c>
@@ -42225,7 +42237,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A646">
         <v>645</v>
       </c>
@@ -42272,7 +42284,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A647">
         <v>646</v>
       </c>
@@ -42319,7 +42331,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A648">
         <v>647</v>
       </c>
@@ -42366,7 +42378,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A649">
         <v>648</v>
       </c>
@@ -42413,7 +42425,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A650">
         <v>649</v>
       </c>
@@ -42460,7 +42472,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A651">
         <v>650</v>
       </c>
@@ -42507,7 +42519,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A652">
         <v>651</v>
       </c>
@@ -42836,7 +42848,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A659">
         <v>658</v>
       </c>
@@ -42883,7 +42895,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A660">
         <v>659</v>
       </c>
@@ -42930,7 +42942,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A661">
         <v>660</v>
       </c>
@@ -42977,7 +42989,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A662">
         <v>661</v>
       </c>
@@ -43024,7 +43036,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A663">
         <v>662</v>
       </c>
@@ -43071,7 +43083,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A664">
         <v>663</v>
       </c>
@@ -43118,7 +43130,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A665">
         <v>664</v>
       </c>
@@ -43165,7 +43177,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A666">
         <v>665</v>
       </c>
@@ -43212,7 +43224,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A667">
         <v>666</v>
       </c>
@@ -43259,7 +43271,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A668">
         <v>667</v>
       </c>
@@ -43306,7 +43318,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A669">
         <v>668</v>
       </c>
@@ -43353,7 +43365,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A670">
         <v>669</v>
       </c>
@@ -43400,7 +43412,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A671">
         <v>670</v>
       </c>
@@ -43447,7 +43459,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A672">
         <v>671</v>
       </c>
@@ -43494,7 +43506,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A673">
         <v>672</v>
       </c>
@@ -43541,7 +43553,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A674">
         <v>673</v>
       </c>
@@ -43588,7 +43600,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A675">
         <v>674</v>
       </c>
@@ -43635,7 +43647,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A676">
         <v>675</v>
       </c>
@@ -43682,7 +43694,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A677">
         <v>682</v>
       </c>
@@ -43729,7 +43741,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A678">
         <v>683</v>
       </c>
@@ -43776,7 +43788,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A679">
         <v>684</v>
       </c>
@@ -43823,7 +43835,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A680">
         <v>685</v>
       </c>
@@ -43870,7 +43882,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A681">
         <v>686</v>
       </c>
@@ -43917,7 +43929,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A682">
         <v>687</v>
       </c>
@@ -43964,7 +43976,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A683">
         <v>688</v>
       </c>
@@ -44011,7 +44023,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A684">
         <v>689</v>
       </c>
@@ -44058,7 +44070,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A685">
         <v>690</v>
       </c>
@@ -44105,7 +44117,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A686">
         <v>691</v>
       </c>
@@ -44152,7 +44164,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A687">
         <v>692</v>
       </c>
@@ -44199,7 +44211,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A688">
         <v>693</v>
       </c>
@@ -44246,7 +44258,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A689">
         <v>694</v>
       </c>
@@ -44293,7 +44305,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A690">
         <v>695</v>
       </c>
@@ -44340,7 +44352,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A691">
         <v>696</v>
       </c>
@@ -44387,7 +44399,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A692">
         <v>697</v>
       </c>
@@ -44434,7 +44446,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A693">
         <v>698</v>
       </c>
@@ -44481,7 +44493,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A694">
         <v>699</v>
       </c>
@@ -44528,7 +44540,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A695">
         <v>700</v>
       </c>
@@ -44575,7 +44587,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A696">
         <v>701</v>
       </c>
@@ -44622,7 +44634,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A697">
         <v>702</v>
       </c>
@@ -44669,7 +44681,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A698">
         <v>703</v>
       </c>
@@ -44716,7 +44728,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A699">
         <v>704</v>
       </c>
@@ -44763,7 +44775,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A700">
         <v>705</v>
       </c>
@@ -44810,7 +44822,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A701">
         <v>706</v>
       </c>
@@ -44857,7 +44869,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A702">
         <v>707</v>
       </c>
@@ -44904,7 +44916,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A703">
         <v>708</v>
       </c>
@@ -44951,7 +44963,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A704">
         <v>709</v>
       </c>
@@ -44998,7 +45010,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A705">
         <v>710</v>
       </c>
@@ -45045,7 +45057,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A706">
         <v>711</v>
       </c>
@@ -45092,7 +45104,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A707">
         <v>712</v>
       </c>
@@ -45139,7 +45151,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A708">
         <v>713</v>
       </c>
@@ -45186,7 +45198,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A709">
         <v>714</v>
       </c>
@@ -45233,7 +45245,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A710">
         <v>715</v>
       </c>
@@ -45280,7 +45292,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A711">
         <v>716</v>
       </c>
@@ -45327,7 +45339,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A712">
         <v>717</v>
       </c>
@@ -45374,7 +45386,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A713">
         <v>718</v>
       </c>
@@ -45421,7 +45433,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A714">
         <v>719</v>
       </c>
@@ -45468,7 +45480,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A715">
         <v>720</v>
       </c>
@@ -45515,7 +45527,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A716">
         <v>721</v>
       </c>
@@ -45562,7 +45574,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A717">
         <v>722</v>
       </c>
@@ -45609,7 +45621,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A718">
         <v>723</v>
       </c>
@@ -45656,7 +45668,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A719">
         <v>724</v>
       </c>
@@ -45703,7 +45715,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A720">
         <v>725</v>
       </c>
@@ -45750,7 +45762,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A721">
         <v>726</v>
       </c>
@@ -45797,7 +45809,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A722">
         <v>727</v>
       </c>
@@ -45844,7 +45856,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A723">
         <v>728</v>
       </c>
@@ -45891,7 +45903,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A724">
         <v>729</v>
       </c>
@@ -45938,7 +45950,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A725">
         <v>730</v>
       </c>
@@ -45985,7 +45997,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A726">
         <v>731</v>
       </c>
@@ -46032,7 +46044,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A727">
         <v>732</v>
       </c>
@@ -46079,7 +46091,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A728">
         <v>733</v>
       </c>
@@ -46126,7 +46138,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A729">
         <v>734</v>
       </c>
@@ -46173,7 +46185,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A730">
         <v>735</v>
       </c>
@@ -46220,7 +46232,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A731">
         <v>736</v>
       </c>
@@ -46267,7 +46279,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A732">
         <v>737</v>
       </c>
@@ -46314,7 +46326,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A733">
         <v>738</v>
       </c>
@@ -46361,7 +46373,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A734">
         <v>739</v>
       </c>
@@ -46408,7 +46420,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A735">
         <v>740</v>
       </c>
@@ -46455,7 +46467,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A736">
         <v>741</v>
       </c>
@@ -46502,7 +46514,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A737">
         <v>742</v>
       </c>
@@ -46549,7 +46561,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A738">
         <v>743</v>
       </c>
@@ -46596,7 +46608,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A739">
         <v>744</v>
       </c>
@@ -46643,7 +46655,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A740">
         <v>745</v>
       </c>
@@ -46690,7 +46702,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A741">
         <v>746</v>
       </c>
@@ -46737,7 +46749,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A742">
         <v>747</v>
       </c>
@@ -46784,7 +46796,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A743">
         <v>748</v>
       </c>
@@ -46831,7 +46843,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A744">
         <v>749</v>
       </c>
@@ -46878,7 +46890,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A745">
         <v>750</v>
       </c>
@@ -46925,7 +46937,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A746">
         <v>751</v>
       </c>
@@ -46972,7 +46984,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A747">
         <v>752</v>
       </c>
@@ -47019,7 +47031,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A748">
         <v>753</v>
       </c>
@@ -47066,7 +47078,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A749">
         <v>754</v>
       </c>
@@ -47113,7 +47125,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A750">
         <v>755</v>
       </c>
@@ -47160,7 +47172,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A751">
         <v>756</v>
       </c>
@@ -47207,7 +47219,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A752">
         <v>757</v>
       </c>
@@ -47254,7 +47266,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A753">
         <v>758</v>
       </c>
@@ -47301,7 +47313,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A754">
         <v>759</v>
       </c>
@@ -47348,7 +47360,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="755" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A755">
         <v>760</v>
       </c>
@@ -47395,7 +47407,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A756">
         <v>761</v>
       </c>
@@ -47442,7 +47454,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="757" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A757">
         <v>762</v>
       </c>
@@ -47489,7 +47501,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="758" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A758">
         <v>763</v>
       </c>
@@ -47536,7 +47548,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="759" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A759">
         <v>764</v>
       </c>
@@ -47583,7 +47595,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="760" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A760">
         <v>765</v>
       </c>
@@ -47630,7 +47642,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="761" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A761">
         <v>766</v>
       </c>
@@ -47677,7 +47689,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="762" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A762">
         <v>767</v>
       </c>
@@ -47724,7 +47736,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="763" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A763">
         <v>768</v>
       </c>
@@ -47771,7 +47783,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="764" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A764">
         <v>769</v>
       </c>
@@ -47818,7 +47830,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="765" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A765">
         <v>770</v>
       </c>
@@ -47865,7 +47877,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="766" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A766">
         <v>771</v>
       </c>
@@ -47912,7 +47924,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="767" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A767">
         <v>772</v>
       </c>
@@ -47959,7 +47971,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="768" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A768">
         <v>773</v>
       </c>
@@ -48006,7 +48018,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A769">
         <v>774</v>
       </c>
@@ -48053,7 +48065,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A770">
         <v>775</v>
       </c>
@@ -48100,7 +48112,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A771">
         <v>776</v>
       </c>
@@ -48147,7 +48159,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A772">
         <v>777</v>
       </c>
@@ -48194,7 +48206,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A773">
         <v>778</v>
       </c>
@@ -48241,7 +48253,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A774">
         <v>779</v>
       </c>
@@ -48288,7 +48300,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A775">
         <v>780</v>
       </c>
@@ -48335,7 +48347,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A776">
         <v>781</v>
       </c>
@@ -48382,7 +48394,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="777" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A777">
         <v>782</v>
       </c>
@@ -48429,7 +48441,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="778" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A778">
         <v>783</v>
       </c>
@@ -48476,7 +48488,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="779" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A779">
         <v>784</v>
       </c>
@@ -48523,7 +48535,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A780">
         <v>785</v>
       </c>
@@ -48570,7 +48582,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="781" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A781">
         <v>786</v>
       </c>
@@ -48617,7 +48629,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A782">
         <v>787</v>
       </c>
@@ -48664,7 +48676,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A783">
         <v>788</v>
       </c>
@@ -48711,7 +48723,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A784">
         <v>789</v>
       </c>
@@ -48758,7 +48770,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="785" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A785">
         <v>790</v>
       </c>
@@ -48805,7 +48817,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A786">
         <v>791</v>
       </c>
@@ -48852,7 +48864,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="787" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A787">
         <v>792</v>
       </c>
@@ -48899,7 +48911,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="788" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A788">
         <v>793</v>
       </c>
@@ -48946,7 +48958,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="789" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A789">
         <v>794</v>
       </c>
@@ -48993,7 +49005,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="790" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A790">
         <v>795</v>
       </c>
@@ -49040,7 +49052,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="791" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A791">
         <v>796</v>
       </c>
@@ -49087,7 +49099,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="792" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A792">
         <v>797</v>
       </c>
@@ -49134,7 +49146,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="793" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A793">
         <v>798</v>
       </c>
@@ -49181,7 +49193,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="794" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A794">
         <v>799</v>
       </c>
@@ -49228,7 +49240,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="795" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A795">
         <v>800</v>
       </c>
@@ -49275,7 +49287,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="796" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A796">
         <v>801</v>
       </c>
@@ -49322,7 +49334,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="797" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A797">
         <v>802</v>
       </c>
@@ -49369,7 +49381,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A798">
         <v>803</v>
       </c>
@@ -49416,7 +49428,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="799" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A799">
         <v>804</v>
       </c>
@@ -49463,7 +49475,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="800" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A800">
         <v>805</v>
       </c>
@@ -49510,7 +49522,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="801" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A801">
         <v>806</v>
       </c>
@@ -49557,7 +49569,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="802" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A802">
         <v>807</v>
       </c>
@@ -49604,7 +49616,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="803" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A803">
         <v>808</v>
       </c>
@@ -49651,7 +49663,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="804" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A804">
         <v>809</v>
       </c>
@@ -49698,7 +49710,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="805" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A805">
         <v>810</v>
       </c>
@@ -49745,7 +49757,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="806" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A806">
         <v>811</v>
       </c>
@@ -49792,7 +49804,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="807" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A807">
         <v>812</v>
       </c>
@@ -49839,7 +49851,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="808" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A808">
         <v>813</v>
       </c>
@@ -49886,7 +49898,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="809" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A809">
         <v>814</v>
       </c>
@@ -49933,7 +49945,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="810" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A810">
         <v>815</v>
       </c>
@@ -49980,7 +49992,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="811" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A811">
         <v>816</v>
       </c>
@@ -50027,7 +50039,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="812" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A812">
         <v>817</v>
       </c>
@@ -50074,7 +50086,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="813" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A813">
         <v>818</v>
       </c>
@@ -50121,7 +50133,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="814" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A814">
         <v>819</v>
       </c>
@@ -50168,7 +50180,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="815" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A815">
         <v>820</v>
       </c>
@@ -50215,7 +50227,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="816" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A816">
         <v>821</v>
       </c>
@@ -50262,7 +50274,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="817" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A817">
         <v>822</v>
       </c>
@@ -50309,7 +50321,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="818" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A818">
         <v>823</v>
       </c>
@@ -50356,7 +50368,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="819" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A819">
         <v>824</v>
       </c>
@@ -50403,7 +50415,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="820" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A820">
         <v>825</v>
       </c>
@@ -50450,7 +50462,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="821" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A821">
         <v>826</v>
       </c>
@@ -50497,7 +50509,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="822" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A822">
         <v>827</v>
       </c>
@@ -50544,7 +50556,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="823" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A823">
         <v>828</v>
       </c>
@@ -50591,7 +50603,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="824" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A824">
         <v>829</v>
       </c>
@@ -50638,7 +50650,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="825" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A825">
         <v>830</v>
       </c>
@@ -50685,7 +50697,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="826" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A826">
         <v>831</v>
       </c>
@@ -50732,7 +50744,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="827" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A827">
         <v>832</v>
       </c>
@@ -50779,7 +50791,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="828" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A828">
         <v>833</v>
       </c>
@@ -50826,7 +50838,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="829" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A829">
         <v>834</v>
       </c>
@@ -50873,7 +50885,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="830" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A830">
         <v>835</v>
       </c>
@@ -50920,7 +50932,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="831" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A831">
         <v>836</v>
       </c>
@@ -50967,7 +50979,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="832" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A832">
         <v>837</v>
       </c>
@@ -51014,7 +51026,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="833" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A833">
         <v>838</v>
       </c>
@@ -51061,7 +51073,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="834" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A834">
         <v>839</v>
       </c>
@@ -51108,7 +51120,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="835" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A835">
         <v>840</v>
       </c>
@@ -51155,7 +51167,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="836" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A836">
         <v>841</v>
       </c>
@@ -51202,7 +51214,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="837" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A837">
         <v>842</v>
       </c>
@@ -51249,7 +51261,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="838" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A838">
         <v>843</v>
       </c>
@@ -51296,7 +51308,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="839" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A839">
         <v>844</v>
       </c>
@@ -51343,7 +51355,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="840" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A840">
         <v>845</v>
       </c>
@@ -51390,7 +51402,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="841" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A841">
         <v>846</v>
       </c>
@@ -51437,7 +51449,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="842" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A842">
         <v>847</v>
       </c>
@@ -51484,7 +51496,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="843" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A843">
         <v>848</v>
       </c>
@@ -51531,7 +51543,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="844" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A844">
         <v>849</v>
       </c>
@@ -51578,7 +51590,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="845" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A845">
         <v>850</v>
       </c>
@@ -51625,7 +51637,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="846" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A846">
         <v>851</v>
       </c>
@@ -51672,7 +51684,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="847" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A847">
         <v>852</v>
       </c>
@@ -51719,7 +51731,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="848" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A848">
         <v>853</v>
       </c>
@@ -51766,7 +51778,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="849" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A849">
         <v>854</v>
       </c>
@@ -51813,7 +51825,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="850" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A850">
         <v>855</v>
       </c>
@@ -51860,7 +51872,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="851" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A851">
         <v>856</v>
       </c>
@@ -51907,7 +51919,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="852" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A852">
         <v>857</v>
       </c>
@@ -51954,7 +51966,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="853" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A853">
         <v>858</v>
       </c>
@@ -52001,7 +52013,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="854" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A854">
         <v>859</v>
       </c>
@@ -52048,7 +52060,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="855" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A855">
         <v>860</v>
       </c>
@@ -52095,7 +52107,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="856" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A856">
         <v>861</v>
       </c>
@@ -52142,7 +52154,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="857" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A857">
         <v>862</v>
       </c>
@@ -52189,7 +52201,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="858" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A858">
         <v>863</v>
       </c>
@@ -52236,7 +52248,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="859" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A859">
         <v>864</v>
       </c>
@@ -52283,7 +52295,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="860" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A860">
         <v>865</v>
       </c>
@@ -52330,7 +52342,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="861" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A861">
         <v>866</v>
       </c>
@@ -52377,7 +52389,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="862" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A862">
         <v>867</v>
       </c>
@@ -52424,7 +52436,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="863" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A863">
         <v>868</v>
       </c>
@@ -52471,7 +52483,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="864" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A864">
         <v>869</v>
       </c>
@@ -52518,7 +52530,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="865" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A865">
         <v>870</v>
       </c>
@@ -52565,7 +52577,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="866" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A866">
         <v>871</v>
       </c>
@@ -52612,7 +52624,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="867" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A867">
         <v>872</v>
       </c>
@@ -52659,7 +52671,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="868" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A868">
         <v>873</v>
       </c>
@@ -52706,7 +52718,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="869" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A869">
         <v>874</v>
       </c>
@@ -52753,7 +52765,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="870" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A870">
         <v>875</v>
       </c>
@@ -52800,7 +52812,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="871" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A871">
         <v>876</v>
       </c>
@@ -52847,7 +52859,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="872" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A872">
         <v>877</v>
       </c>
@@ -52894,7 +52906,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="873" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A873">
         <v>878</v>
       </c>
@@ -52941,7 +52953,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="874" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A874">
         <v>879</v>
       </c>
@@ -52988,7 +53000,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="875" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A875">
         <v>880</v>
       </c>
@@ -53035,7 +53047,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="876" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A876">
         <v>881</v>
       </c>
@@ -53082,7 +53094,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="877" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A877">
         <v>882</v>
       </c>
@@ -53129,7 +53141,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="878" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A878">
         <v>883</v>
       </c>
@@ -53176,7 +53188,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="879" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A879">
         <v>884</v>
       </c>
@@ -53223,7 +53235,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="880" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A880">
         <v>885</v>
       </c>
@@ -53270,7 +53282,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="881" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A881">
         <v>886</v>
       </c>
@@ -53317,7 +53329,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="882" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A882">
         <v>887</v>
       </c>
@@ -53364,7 +53376,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="883" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A883">
         <v>888</v>
       </c>
@@ -53411,7 +53423,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="884" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A884">
         <v>889</v>
       </c>
@@ -53458,7 +53470,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="885" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A885">
         <v>890</v>
       </c>
@@ -53505,7 +53517,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="886" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A886">
         <v>891</v>
       </c>
@@ -53552,7 +53564,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="887" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A887">
         <v>892</v>
       </c>
@@ -53599,7 +53611,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="888" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A888">
         <v>893</v>
       </c>
@@ -53646,7 +53658,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="889" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A889">
         <v>894</v>
       </c>
@@ -53693,7 +53705,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="890" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A890">
         <v>895</v>
       </c>
@@ -53740,7 +53752,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="891" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A891">
         <v>896</v>
       </c>
@@ -53787,7 +53799,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="892" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A892">
         <v>897</v>
       </c>
@@ -53834,7 +53846,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="893" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A893">
         <v>898</v>
       </c>
@@ -53881,7 +53893,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="894" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A894">
         <v>899</v>
       </c>
@@ -53928,7 +53940,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="895" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A895">
         <v>900</v>
       </c>
@@ -53975,7 +53987,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="896" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A896">
         <v>901</v>
       </c>
@@ -54022,7 +54034,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="897" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A897">
         <v>902</v>
       </c>
@@ -54069,7 +54081,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="898" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A898">
         <v>903</v>
       </c>
@@ -54116,7 +54128,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="899" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A899">
         <v>904</v>
       </c>
@@ -54163,7 +54175,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="900" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A900">
         <v>905</v>
       </c>
@@ -54210,7 +54222,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="901" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A901">
         <v>906</v>
       </c>
@@ -54257,7 +54269,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="902" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A902">
         <v>907</v>
       </c>
@@ -54304,7 +54316,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="903" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A903">
         <v>908</v>
       </c>
@@ -54351,7 +54363,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="904" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A904">
         <v>909</v>
       </c>
@@ -54398,7 +54410,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="905" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A905">
         <v>910</v>
       </c>
@@ -54445,7 +54457,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="906" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A906">
         <v>911</v>
       </c>
@@ -54492,7 +54504,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="907" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A907">
         <v>912</v>
       </c>
@@ -54539,7 +54551,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="908" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A908">
         <v>913</v>
       </c>
@@ -54586,7 +54598,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="909" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A909">
         <v>914</v>
       </c>
@@ -54633,7 +54645,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="910" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A910">
         <v>915</v>
       </c>
@@ -54680,7 +54692,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="911" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A911">
         <v>916</v>
       </c>
@@ -54727,7 +54739,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="912" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A912">
         <v>917</v>
       </c>
@@ -54774,7 +54786,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="913" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A913">
         <v>918</v>
       </c>
@@ -54821,7 +54833,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="914" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A914">
         <v>919</v>
       </c>
@@ -54868,7 +54880,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="915" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A915">
         <v>920</v>
       </c>
@@ -54915,7 +54927,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="916" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A916">
         <v>921</v>
       </c>
@@ -54962,7 +54974,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="917" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A917">
         <v>922</v>
       </c>
@@ -55009,7 +55021,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="918" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A918">
         <v>923</v>
       </c>
@@ -55056,7 +55068,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="919" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A919">
         <v>924</v>
       </c>
@@ -55103,7 +55115,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="920" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A920">
         <v>925</v>
       </c>
@@ -55150,7 +55162,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="921" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A921">
         <v>926</v>
       </c>
@@ -55197,7 +55209,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="922" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A922">
         <v>927</v>
       </c>
@@ -55244,7 +55256,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="923" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A923">
         <v>928</v>
       </c>
@@ -55291,7 +55303,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="924" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A924">
         <v>929</v>
       </c>
@@ -55338,7 +55350,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="925" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A925">
         <v>930</v>
       </c>
@@ -55385,7 +55397,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="926" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A926">
         <v>931</v>
       </c>
@@ -55432,7 +55444,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="927" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A927">
         <v>932</v>
       </c>
@@ -55479,7 +55491,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="928" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A928">
         <v>933</v>
       </c>
@@ -55526,7 +55538,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="929" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A929">
         <v>934</v>
       </c>
@@ -55573,7 +55585,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="930" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A930">
         <v>935</v>
       </c>
@@ -55620,7 +55632,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="931" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A931">
         <v>936</v>
       </c>
@@ -55667,7 +55679,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="932" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A932">
         <v>937</v>
       </c>
@@ -55714,7 +55726,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="933" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A933">
         <v>938</v>
       </c>
@@ -55761,7 +55773,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="934" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A934">
         <v>939</v>
       </c>
@@ -55808,7 +55820,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="935" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A935">
         <v>940</v>
       </c>
@@ -55855,7 +55867,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="936" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A936">
         <v>941</v>
       </c>
@@ -55902,7 +55914,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="937" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A937">
         <v>942</v>
       </c>
@@ -55949,7 +55961,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="938" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A938">
         <v>943</v>
       </c>
@@ -55996,7 +56008,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="939" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A939">
         <v>944</v>
       </c>
@@ -56043,7 +56055,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="940" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A940">
         <v>945</v>
       </c>
@@ -56090,7 +56102,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="941" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A941">
         <v>946</v>
       </c>
@@ -56137,7 +56149,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="942" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A942">
         <v>947</v>
       </c>
@@ -56184,7 +56196,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="943" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A943">
         <v>948</v>
       </c>
@@ -56231,7 +56243,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="944" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A944">
         <v>949</v>
       </c>
@@ -56278,7 +56290,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="945" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A945">
         <v>950</v>
       </c>
@@ -56325,7 +56337,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="946" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A946">
         <v>951</v>
       </c>
@@ -56372,7 +56384,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="947" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A947">
         <v>952</v>
       </c>
@@ -56419,7 +56431,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="948" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A948">
         <v>953</v>
       </c>
@@ -56466,7 +56478,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="949" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A949">
         <v>954</v>
       </c>
@@ -56513,7 +56525,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="950" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A950">
         <v>955</v>
       </c>
@@ -56560,7 +56572,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="951" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A951">
         <v>956</v>
       </c>
@@ -56607,7 +56619,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="952" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A952">
         <v>957</v>
       </c>
@@ -56654,7 +56666,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="953" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A953">
         <v>958</v>
       </c>
@@ -56701,7 +56713,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="954" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A954">
         <v>959</v>
       </c>
@@ -56748,7 +56760,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="955" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A955">
         <v>960</v>
       </c>
@@ -56795,7 +56807,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="956" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A956">
         <v>961</v>
       </c>
@@ -56842,7 +56854,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="957" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A957">
         <v>962</v>
       </c>
@@ -56889,7 +56901,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="958" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A958">
         <v>963</v>
       </c>
@@ -56936,7 +56948,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="959" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A959">
         <v>964</v>
       </c>
@@ -56983,7 +56995,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="960" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A960">
         <v>965</v>
       </c>
@@ -57030,7 +57042,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="961" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A961">
         <v>966</v>
       </c>
@@ -57077,7 +57089,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="962" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A962">
         <v>967</v>
       </c>
@@ -57124,7 +57136,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="963" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A963">
         <v>968</v>
       </c>
@@ -57171,7 +57183,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="964" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A964">
         <v>969</v>
       </c>
@@ -57218,7 +57230,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="965" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A965">
         <v>970</v>
       </c>
@@ -57265,7 +57277,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="966" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A966">
         <v>971</v>
       </c>
@@ -57312,7 +57324,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="967" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A967">
         <v>972</v>
       </c>
@@ -57359,7 +57371,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="968" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A968">
         <v>973</v>
       </c>
@@ -57406,7 +57418,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="969" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A969">
         <v>974</v>
       </c>
@@ -57453,7 +57465,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="970" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A970">
         <v>975</v>
       </c>
@@ -57500,7 +57512,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="971" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A971">
         <v>976</v>
       </c>
@@ -57547,7 +57559,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="972" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A972">
         <v>977</v>
       </c>
@@ -57594,7 +57606,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="973" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A973">
         <v>978</v>
       </c>
@@ -57641,7 +57653,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="974" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A974">
         <v>979</v>
       </c>
@@ -57688,7 +57700,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="975" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A975">
         <v>980</v>
       </c>
@@ -57735,7 +57747,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="976" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A976">
         <v>981</v>
       </c>
@@ -57782,7 +57794,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="977" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A977">
         <v>982</v>
       </c>
@@ -57829,7 +57841,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="978" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A978">
         <v>983</v>
       </c>
@@ -57876,7 +57888,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="979" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A979">
         <v>984</v>
       </c>
@@ -57923,7 +57935,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="980" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A980">
         <v>985</v>
       </c>
@@ -57970,7 +57982,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="981" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A981">
         <v>986</v>
       </c>
@@ -58017,7 +58029,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="982" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A982">
         <v>987</v>
       </c>
@@ -58064,7 +58076,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="983" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A983">
         <v>988</v>
       </c>
@@ -58111,7 +58123,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="984" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A984">
         <v>989</v>
       </c>
@@ -58158,7 +58170,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="985" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A985">
         <v>990</v>
       </c>
@@ -58205,7 +58217,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="986" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A986">
         <v>991</v>
       </c>
@@ -58252,7 +58264,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="987" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A987">
         <v>992</v>
       </c>
@@ -58299,7 +58311,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="988" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A988">
         <v>993</v>
       </c>
@@ -58346,7 +58358,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="989" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A989">
         <v>994</v>
       </c>
@@ -58393,7 +58405,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="990" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A990">
         <v>995</v>
       </c>
@@ -58440,7 +58452,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="991" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A991">
         <v>996</v>
       </c>
@@ -58487,7 +58499,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="992" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A992">
         <v>997</v>
       </c>
@@ -58534,7 +58546,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="993" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A993">
         <v>998</v>
       </c>
@@ -58581,7 +58593,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="994" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A994">
         <v>999</v>
       </c>
@@ -58628,7 +58640,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="995" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A995">
         <v>1000</v>
       </c>
@@ -58675,7 +58687,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="996" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A996">
         <v>1001</v>
       </c>
@@ -58722,7 +58734,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="997" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A997">
         <v>1002</v>
       </c>
@@ -58769,7 +58781,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="998" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A998">
         <v>1003</v>
       </c>
@@ -58816,7 +58828,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="999" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A999">
         <v>1004</v>
       </c>
@@ -58863,7 +58875,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1000">
         <v>1005</v>
       </c>
@@ -58910,7 +58922,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1001" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1001">
         <v>1006</v>
       </c>
@@ -58957,7 +58969,7 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1002" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1002">
         <v>1007</v>
       </c>
@@ -59004,7 +59016,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1003" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1003">
         <v>1008</v>
       </c>
@@ -59051,7 +59063,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1004" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1004">
         <v>1009</v>
       </c>
@@ -59098,7 +59110,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1005" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1005">
         <v>1010</v>
       </c>
@@ -59145,7 +59157,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1006" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1006">
         <v>1011</v>
       </c>
@@ -59192,7 +59204,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1007" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1007">
         <v>1012</v>
       </c>
@@ -59239,7 +59251,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1008" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1008">
         <v>1013</v>
       </c>
@@ -59286,7 +59298,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1009" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1009">
         <v>1014</v>
       </c>
@@ -59333,7 +59345,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1010" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1010">
         <v>1015</v>
       </c>
@@ -59380,7 +59392,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1011" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1011">
         <v>1016</v>
       </c>
@@ -59427,7 +59439,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1012" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1012">
         <v>1017</v>
       </c>
@@ -59474,7 +59486,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1013" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1013">
         <v>1018</v>
       </c>
@@ -59521,7 +59533,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1014" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1014">
         <v>1019</v>
       </c>
@@ -59568,7 +59580,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1015" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1015">
         <v>1020</v>
       </c>
@@ -59615,7 +59627,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1016" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1016">
         <v>1021</v>
       </c>
@@ -59662,7 +59674,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1017" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1017">
         <v>1022</v>
       </c>
@@ -59709,7 +59721,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1018" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1018">
         <v>1023</v>
       </c>
@@ -59756,7 +59768,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1019" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1019">
         <v>1024</v>
       </c>
@@ -59803,7 +59815,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1020" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1020">
         <v>1025</v>
       </c>
@@ -59850,7 +59862,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="1021" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1021" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1021">
         <v>1026</v>
       </c>
@@ -59897,7 +59909,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1022" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1022">
         <v>1027</v>
       </c>
@@ -59944,7 +59956,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1023" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1023">
         <v>1028</v>
       </c>
@@ -59991,7 +60003,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1024" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1024">
         <v>1029</v>
       </c>
@@ -60038,7 +60050,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1025" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1025">
         <v>1030</v>
       </c>
@@ -60085,7 +60097,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1026" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1026">
         <v>1031</v>
       </c>
@@ -60132,7 +60144,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1027" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1027">
         <v>1032</v>
       </c>
@@ -60179,7 +60191,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1028" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1028" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1028">
         <v>1033</v>
       </c>
@@ -60226,7 +60238,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1029" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1029">
         <v>1034</v>
       </c>
@@ -60273,7 +60285,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1030" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1030">
         <v>1035</v>
       </c>
@@ -60320,7 +60332,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1031" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1031">
         <v>1036</v>
       </c>
@@ -60367,7 +60379,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1032" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1032">
         <v>1037</v>
       </c>
@@ -60414,7 +60426,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1033" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1033">
         <v>1038</v>
       </c>
@@ -60461,7 +60473,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1034" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1034">
         <v>1039</v>
       </c>
@@ -60508,7 +60520,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1035" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1035" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1035">
         <v>1040</v>
       </c>
@@ -60555,7 +60567,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1036" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1036">
         <v>1041</v>
       </c>
@@ -60602,7 +60614,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1037" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1037">
         <v>1042</v>
       </c>
@@ -60649,7 +60661,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1038" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1038">
         <v>1043</v>
       </c>
@@ -60696,7 +60708,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1039" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1039">
         <v>1044</v>
       </c>
@@ -60743,7 +60755,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1040" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1040">
         <v>1045</v>
       </c>
@@ -60790,7 +60802,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1041" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1041" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1041">
         <v>1046</v>
       </c>
@@ -60837,7 +60849,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1042" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1042" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1042">
         <v>1047</v>
       </c>
@@ -60884,7 +60896,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1043" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1043" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1043">
         <v>1048</v>
       </c>
@@ -60931,7 +60943,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="1044" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1044" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1044">
         <v>1049</v>
       </c>
@@ -60978,7 +60990,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="1045" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1045" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1045">
         <v>1050</v>
       </c>
@@ -61025,7 +61037,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1046" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1046" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1046">
         <v>1051</v>
       </c>
@@ -61072,7 +61084,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1047" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1047" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1047">
         <v>1052</v>
       </c>
@@ -61119,7 +61131,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1048" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1048" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1048">
         <v>1053</v>
       </c>
@@ -61166,7 +61178,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1049" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1049" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1049">
         <v>1054</v>
       </c>
@@ -61213,7 +61225,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1050" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1050" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1050">
         <v>1055</v>
       </c>
@@ -61260,7 +61272,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1051" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1051" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1051">
         <v>1056</v>
       </c>
@@ -61307,7 +61319,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1052" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1052" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1052">
         <v>1057</v>
       </c>
@@ -61354,7 +61366,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1053" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1053" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1053">
         <v>1058</v>
       </c>
@@ -61401,7 +61413,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1054" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1054" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1054">
         <v>1059</v>
       </c>
@@ -61448,7 +61460,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1055" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1055" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1055">
         <v>1060</v>
       </c>
@@ -61495,7 +61507,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1056" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1056" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1056">
         <v>1061</v>
       </c>
@@ -61542,7 +61554,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1057" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1057">
         <v>1062</v>
       </c>
@@ -61589,7 +61601,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1058" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1058" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1058">
         <v>1063</v>
       </c>
@@ -61636,7 +61648,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1059" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1059" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1059">
         <v>1064</v>
       </c>
@@ -61683,7 +61695,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1060" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1060" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1060">
         <v>1065</v>
       </c>
@@ -61730,7 +61742,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1061" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1061">
         <v>1066</v>
       </c>
@@ -61777,7 +61789,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1062" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1062">
         <v>1067</v>
       </c>
@@ -61824,7 +61836,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1063" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1063" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1063">
         <v>1068</v>
       </c>
@@ -61871,7 +61883,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="1064" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1064" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1064">
         <v>1069</v>
       </c>
@@ -61918,7 +61930,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1065" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1065" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1065">
         <v>1070</v>
       </c>
@@ -61965,7 +61977,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1066" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1066" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1066">
         <v>1071</v>
       </c>
@@ -62012,7 +62024,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1067" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1067" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1067">
         <v>1072</v>
       </c>
@@ -62059,7 +62071,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="1068" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1068" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1068">
         <v>1073</v>
       </c>
@@ -62106,7 +62118,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="1069" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1069" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1069">
         <v>1074</v>
       </c>
@@ -62153,7 +62165,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1070" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1070" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1070">
         <v>1075</v>
       </c>
@@ -62200,7 +62212,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1071" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1071" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1071">
         <v>1076</v>
       </c>
@@ -62247,7 +62259,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1072" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1072" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1072">
         <v>1077</v>
       </c>
@@ -62294,7 +62306,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1073" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1073" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1073">
         <v>1078</v>
       </c>
@@ -62341,7 +62353,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1074" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1074" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1074">
         <v>1079</v>
       </c>
@@ -62388,7 +62400,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1075" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1075" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1075">
         <v>1080</v>
       </c>
@@ -62435,7 +62447,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1076" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1076">
         <v>1081</v>
       </c>
@@ -62482,7 +62494,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1077" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1077" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1077">
         <v>1082</v>
       </c>
@@ -62529,7 +62541,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1078" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1078" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1078">
         <v>1083</v>
       </c>
@@ -62576,7 +62588,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1079" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1079" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1079">
         <v>1084</v>
       </c>
@@ -62623,7 +62635,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1080" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1080">
         <v>1085</v>
       </c>
@@ -62671,6 +62683,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O1080">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="17SD018309001"/>
+        <filter val="17SD018309001N"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
